--- a/Seguimiento_academico_-_Tecnicatura_en_programación/Seguidor_de_carrera_(TeP)_-_UNAB .xlsx
+++ b/Seguimiento_academico_-_Tecnicatura_en_programación/Seguidor_de_carrera_(TeP)_-_UNAB .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Estudio\Plan de estudios - UNAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806BAC64-76FA-4A44-88E9-8CC9AF9208FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C1D2B0-6253-4A9C-A0FA-0A40B31EC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Ciencia tecnologia e Inovacion</t>
   </si>
@@ -136,13 +136,16 @@
   </si>
   <si>
     <t>[NH]</t>
+  </si>
+  <si>
+    <t>Cantidad de materias aprobadas:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +193,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -274,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,35 +308,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,9 +636,11 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="14" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,7 +650,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -636,20 +660,20 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
@@ -668,8 +692,15 @@
       <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>COUNT(L4:L24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
@@ -699,21 +730,21 @@
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="16" t="str">
+      <c r="N4" s="7" t="str">
         <f>IF(L4="", "", IF(L4&gt;=7, "Promocionado", IF(L4&gt;4, "Aprobado", "Desaprobado")))</f>
         <v>Promocionado</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="2">
         <v>6</v>
       </c>
@@ -730,21 +761,21 @@
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="16" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" ref="N5:N24" si="1">IF(L5="", "", IF(L5&gt;=7, "Promocionado", IF(L5&gt;4, "Aprobado", "Desaprobado")))</f>
         <v>Promocionado</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2">
         <v>6</v>
       </c>
@@ -759,23 +790,23 @@
         <v>6</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="16" t="str">
+      <c r="N6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Aprobado</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -784,21 +815,21 @@
         <v/>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -807,21 +838,21 @@
         <v/>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -830,12 +861,12 @@
         <v/>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="14" t="s">
@@ -853,25 +884,25 @@
         <v/>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -880,21 +911,21 @@
         <v/>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -903,21 +934,21 @@
         <v/>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -926,12 +957,12 @@
         <v/>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="14" t="s">
@@ -949,23 +980,23 @@
         <v/>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -974,21 +1005,21 @@
         <v/>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -997,7 +1028,7 @@
         <v/>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1005,13 +1036,13 @@
     <row r="17" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1020,7 +1051,7 @@
         <v/>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1032,13 +1063,13 @@
       <c r="C18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1047,7 +1078,7 @@
         <v/>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1055,13 +1086,13 @@
     <row r="19" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1070,7 +1101,7 @@
         <v/>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1078,13 +1109,13 @@
     <row r="20" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1093,7 +1124,7 @@
         <v/>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1103,13 +1134,13 @@
       <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1118,7 +1149,7 @@
         <v/>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1126,13 +1157,13 @@
     <row r="22" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1141,7 +1172,7 @@
         <v/>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1149,13 +1180,13 @@
     <row r="23" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1164,7 +1195,7 @@
         <v/>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1172,13 +1203,13 @@
     <row r="24" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1187,7 +1218,7 @@
         <v/>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1212,12 +1243,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="31">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D4:H4"/>
@@ -1233,16 +1268,12 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I4:L24">
